--- a/StudentManagement_API/PermissionSlipExport.xlsx
+++ b/StudentManagement_API/PermissionSlipExport.xlsx
@@ -62,16 +62,16 @@
     <t>Father</t>
   </si>
   <si>
-    <t>Robert K. Doe</t>
-  </si>
-  <si>
-    <t>23-02-2025 at 10:03 PM</t>
-  </si>
-  <si>
-    <t>Rimjhim is at home</t>
-  </si>
-  <si>
-    <t>Rahul</t>
+    <t>Michael B. Doe</t>
+  </si>
+  <si>
+    <t>26-03-2025 at 08:13 PM</t>
+  </si>
+  <si>
+    <t>Student requires early pickup due to health concerns</t>
+  </si>
+  <si>
+    <t>Meera Kapoor</t>
   </si>
 </sst>
 </file>
@@ -129,10 +129,10 @@
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="12.210966110229492" customWidth="1"/>
-    <col min="7" max="7" width="12.872889518737793" customWidth="1"/>
+    <col min="7" max="7" width="13.922554969787598" customWidth="1"/>
     <col min="8" max="8" width="21.902463912963867" customWidth="1"/>
-    <col min="9" max="9" width="17.587175369262695" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="47.102603912353516" customWidth="1"/>
+    <col min="10" max="10" width="13.281092643737793" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
